--- a/test/e2e/review/reports/review_results.xlsx
+++ b/test/e2e/review/reports/review_results.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-19T02:50:35+00:00</t>
+          <t>2025-11-19T04:48:24+00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-19T02:50:36+00:00</t>
+          <t>2025-11-19T04:48:26+00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-19T02:50:40+00:00</t>
+          <t>2025-11-19T04:48:30+00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-19T02:50:52+00:00</t>
+          <t>2025-11-19T04:48:41+00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:02+00:00</t>
+          <t>2025-11-19T04:48:52+00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:08+00:00</t>
+          <t>2025-11-19T04:48:59+00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:11+00:00</t>
+          <t>2025-11-19T04:49:02+00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:14+00:00</t>
+          <t>2025-11-19T04:49:05+00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:17+00:00</t>
+          <t>2025-11-19T04:49:08+00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:21+00:00</t>
+          <t>2025-11-19T04:49:12+00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:35+00:00</t>
+          <t>2025-11-19T04:49:26+00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-11-19T02:51:50+00:00</t>
+          <t>2025-11-19T04:49:41+00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:04+00:00</t>
+          <t>2025-11-19T04:49:56+00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:07+00:00</t>
+          <t>2025-11-19T04:49:59+00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:10+00:00</t>
+          <t>2025-11-19T04:50:02+00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -958,7 +958,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:13+00:00</t>
+          <t>2025-11-19T04:50:05+00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:17+00:00</t>
+          <t>2025-11-19T04:50:09+00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1022,7 +1022,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:28+00:00</t>
+          <t>2025-11-19T04:50:20+00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:40+00:00</t>
+          <t>2025-11-19T04:50:31+00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-11-19T02:52:43+00:00</t>
+          <t>2025-11-19T04:50:35+00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
